--- a/epbc_graph_2023.xlsx
+++ b/epbc_graph_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/ausenv_biodiversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{9684961B-C4AC-4243-99A3-A8EC278ACD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E50D61F-C64A-43E0-98B6-34552A8A96E4}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{9684961B-C4AC-4243-99A3-A8EC278ACD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{078E639D-78C5-4EFE-BAF1-E0F5855EF809}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2970" windowWidth="29040" windowHeight="15720" xr2:uid="{BE97F42E-F9E0-4903-BBC3-9D7E95188CA5}"/>
+    <workbookView minimized="1" xWindow="-26505" yWindow="-1665" windowWidth="16920" windowHeight="10485" xr2:uid="{BE97F42E-F9E0-4903-BBC3-9D7E95188CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -955,7 +955,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1003,7 +1003,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1045,7 +1045,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1085,7 +1085,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1050"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1648,15 +1648,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>30162</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1682,6 +1682,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1984,7 +1988,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
